--- a/StructureDefinition-npr-episode-identifier.xlsx
+++ b/StructureDefinition-npr-episode-identifier.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:13:21+00:00</t>
+    <t>2025-09-12T12:54:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-npr-episode-identifier.xlsx
+++ b/StructureDefinition-npr-episode-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T12:54:49+00:00</t>
+    <t>2025-09-12T13:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-npr-episode-identifier.xlsx
+++ b/StructureDefinition-npr-episode-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:01:34+00:00</t>
+    <t>2025-09-12T13:06:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-npr-episode-identifier.xlsx
+++ b/StructureDefinition-npr-episode-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:06:36+00:00</t>
+    <t>2025-09-13T17:40:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-npr-episode-identifier.xlsx
+++ b/StructureDefinition-npr-episode-identifier.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-13T17:40:53+00:00</t>
+    <t>2025-10-07T11:54:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1239,7 +1239,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>125</v>
       </c>
@@ -2487,12 +2487,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK16">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/StructureDefinition-npr-episode-identifier.xlsx
+++ b/StructureDefinition-npr-episode-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T11:54:58+00:00</t>
+    <t>2025-10-12T08:57:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-npr-episode-identifier.xlsx
+++ b/StructureDefinition-npr-episode-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-12T08:57:38+00:00</t>
+    <t>2025-10-12T09:19:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-npr-episode-identifier.xlsx
+++ b/StructureDefinition-npr-episode-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-12T09:19:49+00:00</t>
+    <t>2025-10-17T18:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-npr-episode-identifier.xlsx
+++ b/StructureDefinition-npr-episode-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T18:23:46+00:00</t>
+    <t>2025-10-17T18:45:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-npr-episode-identifier.xlsx
+++ b/StructureDefinition-npr-episode-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T18:45:29+00:00</t>
+    <t>2025-10-17T18:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-npr-episode-identifier.xlsx
+++ b/StructureDefinition-npr-episode-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T18:58:39+00:00</t>
+    <t>2025-10-18T06:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-npr-episode-identifier.xlsx
+++ b/StructureDefinition-npr-episode-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-18T06:27:30+00:00</t>
+    <t>2025-10-18T06:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-npr-episode-identifier.xlsx
+++ b/StructureDefinition-npr-episode-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-18T06:37:01+00:00</t>
+    <t>2025-10-18T06:49:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-npr-episode-identifier.xlsx
+++ b/StructureDefinition-npr-episode-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-18T06:49:50+00:00</t>
+    <t>2025-11-06T09:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-npr-episode-identifier.xlsx
+++ b/StructureDefinition-npr-episode-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T09:39:43+00:00</t>
+    <t>2025-11-06T09:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-npr-episode-identifier.xlsx
+++ b/StructureDefinition-npr-episode-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T09:59:39+00:00</t>
+    <t>2025-11-24T09:13:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-npr-episode-identifier.xlsx
+++ b/StructureDefinition-npr-episode-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:13:45+00:00</t>
+    <t>2025-11-25T12:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-npr-episode-identifier.xlsx
+++ b/StructureDefinition-npr-episode-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T12:27:52+00:00</t>
+    <t>2026-02-05T09:35:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
